--- a/models/table_b1-3.xlsx
+++ b/models/table_b1-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1797            </t>
+    <t xml:space="preserve">1808            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
@@ -118,367 +118,370 @@
     <t xml:space="preserve">0.2331          </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0626         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0109          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.81          </t>
+    <t xml:space="preserve">-0.1076         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0058          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.56          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0260***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0031)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0850          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0564)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0554         </t>
+    <t xml:space="preserve">0.0243***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0029)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0848          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0563)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0557         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0585)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1613*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0918)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3383**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1373)        </t>
+    <t xml:space="preserve">-0.1649*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0932)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3380**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1366)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2405          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0701         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0067          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.507          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0263***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0831          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0544)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0560         </t>
+    <t xml:space="preserve">0.2404          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1169         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0014          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.011          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0245***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0830          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0543)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0563         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0588)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1549*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0891)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3432***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1308)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0341**       </t>
+    <t xml:space="preserve">-0.1585*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0905)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3429***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1301)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0340**       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0139)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0335**        </t>
+    <t xml:space="preserve">0.0333**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0145)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6574          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9153          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8654          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">426.88          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0224***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0009)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0338*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0191)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0391         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0247)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0488         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0318)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0855          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0628)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0093         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0091)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0090          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0080)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7221***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0612)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0225          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0196)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6670          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8731          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8327          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">395.95          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0219***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0011)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0091          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0214)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0507*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0260)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0725**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0367)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0561          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0708)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0064         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0089)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0097          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0076)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6819***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0679)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0060         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0146)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.6580          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9200          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8661          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">425.66          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0229***       </t>
+    <t xml:space="preserve">0.0985***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0339)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6628          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8928          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8485          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">388.56          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0221***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0010)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0340*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0191)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0393         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0246)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0477         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0311)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0853          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0631)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0094         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0093)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0090          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0081)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7230***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0611)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0224          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0200)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6677          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8745          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8332          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">394.92          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0225***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0012)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0213)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0504*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0259)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0709**       </t>
+    <t xml:space="preserve">0.0177          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0204)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0348         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0243)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0620*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0346)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0667          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0648)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0074         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0088)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0081          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6998***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0676)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0070          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0166)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0572**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6650          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8828          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8406          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">392.39          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0220***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0127          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0210)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0408         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0249)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0674*        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0359)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0560          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0712)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0063         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0089)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0097          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0076)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6824***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0680)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0059         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0154)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0980***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0336)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6635          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8960          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8490          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.53          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0227***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0011)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0178          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0203)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0349         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0242)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0608*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0339)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0665          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0652)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0074         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0081          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0080)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7004***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0678)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0075          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0174)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0569**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6657          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8851          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8411          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">391.36          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0226***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0210)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0407         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0248)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0661*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0351)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0606          </t>
+    <t xml:space="preserve">0.0607          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0673)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0068         </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0088)        </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.0087          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0079)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.6911***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0686)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0007          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0164)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0787**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0308)        </t>
+    <t xml:space="preserve">0.6906***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0684)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0003          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0156)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0791**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0310)        </t>
   </si>
 </sst>
 </file>
@@ -974,10 +977,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -997,10 +1000,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,10 +1023,10 @@
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1043,10 +1046,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1066,10 +1069,10 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1112,10 +1115,10 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1135,10 +1138,10 @@
         <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1155,13 +1158,13 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1178,13 +1181,13 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1201,13 +1204,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,13 +1227,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1247,13 +1250,13 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,13 +1273,13 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1293,13 +1296,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1316,13 +1319,13 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1339,13 +1342,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1362,13 +1365,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,13 +1388,13 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1408,13 +1411,13 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1431,13 +1434,13 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1454,13 +1457,13 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1477,13 +1480,13 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1500,13 +1503,13 @@
         <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1523,7 +1526,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -1546,7 +1549,7 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
         <v>48</v>
@@ -1572,7 +1575,7 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -1595,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
@@ -1621,7 +1624,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1644,7 +1647,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b1-3.xlsx
+++ b/models/table_b1-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="186">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -94,6 +97,15 @@
     <t xml:space="preserve">l_sy_sci_state         </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -109,379 +121,457 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1808            </t>
+    <t xml:space="preserve">2041            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2331          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1076         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0058          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.56          </t>
+    <t xml:space="preserve">0.6564          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5433          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5573          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">769.90          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0243***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0029)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0848          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0563)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0557         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0585)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1649*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0932)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3380**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1366)        </t>
+    <t xml:space="preserve">0.0547***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0028)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2230***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0665)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2612***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0815)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0566          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0550)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2291***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0693)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0747          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0914)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2404          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1169         </t>
+    <t xml:space="preserve">0.6603          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5487          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5628          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">558.92          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2299***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0679)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2593***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0812)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0584          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0551)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2273***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0689)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0783          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0901)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0086         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0132)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0406***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0106)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9360          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9940          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9721          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2447.9          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0536***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0005)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0152          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0164)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0138          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0084)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0074          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0109)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0210         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0162)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0092          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0223)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0005         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0076)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0018         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0059)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9266***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0229)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0117          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0112)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0027         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0147*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0087)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0050         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0173)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9372          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9843          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9663          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2302.5          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0533***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0006)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0047          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0182)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.541e-05       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0061)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0060          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0131)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0185         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0157)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0022          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0210)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0072)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0016         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8784***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0299)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0021         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0116)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0061         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0139)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0240***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0089)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0029         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0181)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0650***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9374          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9835          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9659          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2313.7          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0543***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0002         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0196)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0068         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0054)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0030         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0135)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0181         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0160)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0034          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0212)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0003         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0073)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0009         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8812***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0242)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0075         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0127)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0020          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0136)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0218**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0085)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0006         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0832***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0175)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9828          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9654          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2311.7          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0538***       </t>
   </si>
   <si>
     <t xml:space="preserve">0.0014          </t>
   </si>
   <si>
-    <t xml:space="preserve">94.011          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0245***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0830          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0543)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0563         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0588)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1585*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0905)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3429***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1301)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0340**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0139)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0333**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0145)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6574          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9153          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8654          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">426.88          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0224***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0009)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0338*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0191)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0391         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0247)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0488         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0318)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0855          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0628)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0093         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0091)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0090          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0080)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7221***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0612)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0225          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0196)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6670          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8731          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8327          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">395.95          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0219***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0011)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0091          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0214)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0507*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0260)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0725**       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0367)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0561          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0708)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0064         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0089)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0097          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0076)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6819***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0679)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0060         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0146)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0985***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0339)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6628          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8928          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8485          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">388.56          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0221***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0010)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0177          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0204)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0348         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0243)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0620*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0346)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0667          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0648)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0074         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0088)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0081          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6998***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0676)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0070          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0166)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0572**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6650          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8828          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8406          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">392.39          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0220***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0127          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0210)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0408         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0249)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0674*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0359)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0607          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0673)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0068         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0087          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0079)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6906***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0684)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0003          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0156)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0791**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0310)        </t>
+    <t xml:space="preserve">(0.0189)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0044         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0016          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0134)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0158)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0211)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0008          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0013         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8756***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0272)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0059         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0121)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0025         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0140)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0238***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0086)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0792***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0171)        </t>
   </si>
 </sst>
 </file>
@@ -839,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,22 +963,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -896,22 +986,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -919,22 +1009,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -942,22 +1032,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -965,22 +1055,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -988,22 +1078,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1011,22 +1101,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1034,22 +1124,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1057,22 +1147,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1080,22 +1170,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1103,22 +1193,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1126,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1149,22 +1239,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1172,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1195,22 +1285,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1218,22 +1308,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1241,22 +1331,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,22 +1377,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1310,22 +1400,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1333,22 +1423,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1356,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1379,22 +1469,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1402,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
         <v>149</v>
@@ -1425,22 +1515,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1448,22 +1538,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1471,22 +1561,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1494,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1517,22 +1607,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1540,22 +1630,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1563,22 +1653,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1586,22 +1676,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1609,22 +1699,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1632,22 +1722,206 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
